--- a/ICHaus/doc/ICHaus_BOM.xlsx
+++ b/ICHaus/doc/ICHaus_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soeren\Documents\GitHub\ICHausInterpolation\ICHaus\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31F8069E-6C68-45AC-BFC1-B70DA4F39432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55EF2ED-2C01-4165-A93C-23AB51FFD103}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1530" windowWidth="19785" windowHeight="14565"/>
+    <workbookView xWindow="3150" yWindow="705" windowWidth="19785" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICHaus_BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Designator</t>
   </si>
@@ -61,9 +61,6 @@
     <t>C72043</t>
   </si>
   <si>
-    <t>C2,C3,C4yC12,C13,C14</t>
-  </si>
-  <si>
     <t>220p</t>
   </si>
   <si>
@@ -104,12 +101,24 @@
   </si>
   <si>
     <t>C369149</t>
+  </si>
+  <si>
+    <t>C2,C3,C4,C12,C13,C14</t>
+  </si>
+  <si>
+    <t>C17437</t>
+  </si>
+  <si>
+    <t>0805_R</t>
+  </si>
+  <si>
+    <t>R1,R11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -943,11 +952,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,7 +999,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>220</v>
@@ -1004,7 +1013,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1015,58 +1024,72 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>805</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
-        <v>23</v>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>120</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
